--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.7015182403732778</v>
+        <v>-0.3422723562191532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.5555135891318952</v>
+        <v>-0.5037688924316441</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.2451976371230291</v>
+        <v>-0.467076459743887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.8442071301477228</v>
+        <v>0.169534172659791</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.212115489820365</v>
+        <v>-0.03968684591929561</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.122475521884692</v>
+        <v>1.032338390744236</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.3626630030113764</v>
+        <v>0.3765075513336269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.578174579726376</v>
+        <v>-0.1937612543835177</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>-0.7218300370884001</v>
+        <v>0.6066710853121382</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.7492845378401558</v>
+        <v>-0.8331679621937482</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.07607154651957382</v>
+        <v>-0.3970496740026364</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.2751437421933511</v>
+        <v>0.1273541662098365</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.184453991189526</v>
+        <v>-0.4865818826308876</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07468705617190707</v>
+        <v>-0.08273351073040391</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.3631938889236741</v>
+        <v>-0.01252079199893785</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.05493014849097255</v>
+        <v>-0.1151820594382569</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.1249812328300459</v>
+        <v>0.07348980370169844</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.2820931576894115</v>
+        <v>0.157394256377752</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.2464114370821502</v>
+        <v>0.06194937150048041</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.1945700812221007</v>
+        <v>0.3426151435189873</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.007490141202270983</v>
+        <v>0.1686730364466316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.0007133001605263978</v>
+        <v>0.1598952850611068</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.1199330684587996</v>
+        <v>0.132465972367557</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-2.594017828322792</v>
+        <v>-0.4923796969465988</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.126320849439001</v>
+        <v>-0.3459257698102514</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5726882163857971</v>
+        <v>-0.5121403324772844</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.4385391043360887</v>
+        <v>-1.073589070820447</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.09402823344024647</v>
+        <v>-0.2454721753057276</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.8200243578187161</v>
+        <v>-1.238905350026021</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.6846709791617167</v>
+        <v>0.7038634017465073</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.1200849649013458</v>
+        <v>0.4406734233171727</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.2212143863870253</v>
+        <v>0.20168190406884</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.3049434951572172</v>
+        <v>0.3613321345859122</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.09492420427399395</v>
+        <v>-0.06418790329880686</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.2765110737940724</v>
+        <v>-0.08988642825158433</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>0.9380533998416762</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-0.3422723562191532</v>
+        <v>1.155022846258058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.5037688924316441</v>
+        <v>-4.857241224140929</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.467076459743887</v>
+        <v>-1.691674259276643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.169534172659791</v>
+        <v>0.3625742673738941</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.03968684591929561</v>
+        <v>-1.432000573345915</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.032338390744236</v>
+        <v>0.9965309787904442</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.3765075513336269</v>
+        <v>-0.02552935725171901</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.1937612543835177</v>
+        <v>0.6836026627130565</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.6066710853121382</v>
+        <v>1.279644059586871</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.8331679621937482</v>
+        <v>0.2336505480021955</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.3970496740026364</v>
+        <v>0.4758549421990166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.1273541662098365</v>
+        <v>-0.1446844164011307</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.4865818826308876</v>
+        <v>-0.03923323971219972</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.08273351073040391</v>
+        <v>-0.1588690085687849</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.01252079199893785</v>
+        <v>-0.4617525814883283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.1151820594382569</v>
+        <v>-0.5438176183081733</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.07348980370169844</v>
+        <v>0.01247916696665019</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.157394256377752</v>
+        <v>-0.006876704825709012</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.06194937150048041</v>
+        <v>-0.05033169102144353</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.3426151435189873</v>
+        <v>0.6718983809452572</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.1686730364466316</v>
+        <v>0.08750765859864007</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.1598952850611068</v>
+        <v>-0.6347897325981511</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.132465972367557</v>
+        <v>0.01241557525981651</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.4923796969465988</v>
+        <v>-0.7158018152081724</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.3459257698102514</v>
+        <v>-0.76158050880345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5121403324772844</v>
+        <v>1.22331349480691</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.073589070820447</v>
+        <v>-0.5204428773059266</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.2454721753057276</v>
+        <v>-1.508346016334061</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-1.238905350026021</v>
+        <v>-1.034042971854776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.7038634017465073</v>
+        <v>0.2857158074419441</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.4406734233171727</v>
+        <v>-0.2434890887128005</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.20168190406884</v>
+        <v>1.050311853611596</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.3613321345859122</v>
+        <v>0.6547560647617745</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.06418790329880686</v>
+        <v>-1.467296258526263</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.08988642825158433</v>
+        <v>-0.02957675682233596</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.22331349480691</v>
+        <v>1.576357831383701</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.5204428773059266</v>
+        <v>-0.03826480485497052</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.508346016334061</v>
+        <v>-1.488707312182591</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-1.034042971854776</v>
+        <v>-1.062239424572275</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.2857158074419441</v>
+        <v>0.3474924879233177</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.2434890887128005</v>
+        <v>0.06147841237726936</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.050311853611596</v>
+        <v>0.8934739937295655</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.6547560647617745</v>
+        <v>0.4129745242490879</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.467296258526263</v>
+        <v>-1.372720900450852</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.02957675682233596</v>
+        <v>0.2610638872259319</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>0.9380533998416762</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -440,7 +437,7 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-4.857241224140929</v>
+        <v>-4.857241224140941</v>
       </c>
       <c r="D3">
         <v>2010</v>
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.3625742673738941</v>
+        <v>0.3625742673738719</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.6836026627130565</v>
+        <v>0.6836026627130787</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.2336505480021955</v>
+        <v>0.2336505480021511</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.03923323971219972</v>
+        <v>-0.03923323971221082</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.1588690085687849</v>
+        <v>-0.1588690085688071</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.4617525814883283</v>
+        <v>-0.4617525814883061</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.5438176183081733</v>
+        <v>-0.5438176183081955</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.01247916696665019</v>
+        <v>0.01247916696662799</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.006876704825709012</v>
+        <v>-0.006876704825686808</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.6347897325981511</v>
+        <v>-0.63478973259814</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.01241557525981651</v>
+        <v>0.01241557525979431</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.7158018152081724</v>
+        <v>-0.7158018152081613</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.76158050880345</v>
+        <v>-0.7615805088034833</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.576357831383701</v>
+        <v>1.576357831383679</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -661,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.488707312182591</v>
+        <v>-1.488707312182613</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-1.062239424572275</v>
+        <v>-1.062239424572287</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.8934739937295655</v>
+        <v>0.8934739937295433</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.4129745242490879</v>
+        <v>0.4129745242491101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.372720900450852</v>
+        <v>-1.372720900450863</v>
       </c>
       <c r="D19">
         <v>2026</v>
